--- a/Neural networks/teste de rede.xlsx
+++ b/Neural networks/teste de rede.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\Desktop\Projeto mestrado\Neural networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFB0AAD-EEB5-4AB6-A3DB-B94FA13C4056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E91F4F-4AF3-4A57-84DE-994F04108D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1740" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>Épocas</t>
   </si>
@@ -274,6 +274,27 @@
   </si>
   <si>
     <t>log250eps</t>
+  </si>
+  <si>
+    <t>Teste 1</t>
+  </si>
+  <si>
+    <t>Teste 2</t>
+  </si>
+  <si>
+    <t>Teste 3</t>
+  </si>
+  <si>
+    <t>Valores utilizados</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>split</t>
   </si>
 </sst>
 </file>
@@ -296,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +342,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -334,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,16 +373,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,15 +760,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -740,8 +783,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="638176" y="7639050"/>
-          <a:ext cx="4514849" cy="1104900"/>
+          <a:off x="1533526" y="10325100"/>
+          <a:ext cx="4238624" cy="1104900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,8 +851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6410327" y="9470183"/>
-          <a:ext cx="2762248" cy="1369267"/>
+          <a:off x="6395199" y="9470183"/>
+          <a:ext cx="2744319" cy="1369267"/>
           <a:chOff x="5800727" y="6803183"/>
           <a:chExt cx="2762248" cy="1369267"/>
         </a:xfrm>
@@ -1122,13 +1165,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1186,6 +1229,742 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>895349</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B45D6115-1801-475F-94E6-B58AB396C681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543049" y="13544550"/>
+          <a:ext cx="2714625" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Comparação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> dos resultados de classificação entre as redes AlexNet e ShallowNet</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11722</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>897547</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2FBB3A-2038-4302-92D8-8CF1AD2761A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543049" y="13544550"/>
+          <a:ext cx="2717556" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Comparação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> dos resultados de classificação entre as redes AlexNet e ShallowNet</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133794</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>15609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>534227</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462AD0E9-96E8-473C-A541-622805C4FEDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5310424" y="13731609"/>
+          <a:ext cx="2852086" cy="1707173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Resultados: Ambas as arquiteturas de rede,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> classificaram todos os elementos da base de dados como '1'. O que justifica a acurácia do modelo de 73.43%, uma vez que em torno de 70% dos objetos da classe são classificados como 1 (no ground-truth)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>212480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>21979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>168518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD20BD46-313E-455A-A91D-1B469B0C6DB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8433288" y="3831979"/>
+          <a:ext cx="3011366" cy="2432539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Os</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> testes descritos nas </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>tabelas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> de cor vermelha foram desconsiderados, uma vez que a divisão dos dados em subsets para teste e treino foram feitos de forma aleatória (gerando um resultado inconclusivo). Contudo, vale ressaltar que após a correção, os resultados continuaram com um valor semelhante.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>49695</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector: Angulado 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B009505C-E605-9034-D054-46247B5C02CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4323521" y="13997609"/>
+          <a:ext cx="894522" cy="505239"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Conector: Angulado 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FFE9E0-93C6-579F-7EBC-5B516E211F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4340088" y="14858999"/>
+          <a:ext cx="844825" cy="563218"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>18922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7454</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C959098-A59C-42A6-B745-2A6BD601A669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1557130" y="14877922"/>
+          <a:ext cx="2724150" cy="2035165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>Utiliza-se um subset contendo a mesma quantidade de dados com valores 0 e 1. A fim de verificar se o valor da acurácia acompanha. O teste foi repetido 3 vezes. Vale ressaltar que os objetos com valores iguais a 0 permaneceram constantes, enquanto que os objetos com valores iguais a 1 foram selecionados aleatoriamente </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>902803</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>7715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209876</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>83412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagem 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A2F7530-2FB7-B5CB-4EB2-93A0214F4370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5176629" y="15819215"/>
+          <a:ext cx="6339008" cy="2361697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828261</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Conector de Seta Reta 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63B1B20-9A88-9236-8661-DDFD54B64958}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4414630" y="16474109"/>
+          <a:ext cx="687457" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>7284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247454</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>56367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagem 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5DC0AF-9AAF-41E6-6FBA-0376EB38B698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3372972" y="18295284"/>
+          <a:ext cx="6276217" cy="2335083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241732</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>7926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241788</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector de Seta Reta 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BE7CEB-C24E-4B33-A893-98618DCFED88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3604790" y="17152926"/>
+          <a:ext cx="56" cy="988535"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601807</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>6194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>604415</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>154132</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector de Seta Reta 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0208BF59-8174-49B8-843C-13659A60553E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2135332" y="17151194"/>
+          <a:ext cx="2608" cy="3576938"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>596348</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>528626</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Imagem 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96632E1A-021F-2EF6-3E1F-7AA237FAA0E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596348" y="20797630"/>
+          <a:ext cx="6334735" cy="2459935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1488,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B7:H70"/>
+  <dimension ref="C7:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,70 +2282,70 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
         <v>16</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
         <v>30</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
@@ -1955,68 +2734,172 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3" t="s">
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="8"/>
-      <c r="C68" s="2" t="s">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C68" s="5"/>
+      <c r="D68" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="1">
+      <c r="D69" s="1">
         <v>30</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="1">
+      <c r="D70" s="1">
         <v>250</v>
       </c>
-      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C78" s="10"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F86" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O98" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P98" s="6"/>
+    </row>
+    <row r="99" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O99" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P99" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O100" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P100" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O101" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P101" s="16" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
@@ -2029,6 +2912,7 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="J78:K78"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Neural networks/teste de rede.xlsx
+++ b/Neural networks/teste de rede.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\Desktop\Projeto mestrado\Neural networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E91F4F-4AF3-4A57-84DE-994F04108D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F095DCB-D4DA-4C67-8337-B1C92E46BBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,20 +375,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,6 +385,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2269,7 +2265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
@@ -2282,70 +2278,70 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
         <v>16</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13">
         <v>30</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
@@ -2795,76 +2791,51 @@
       <c r="H70" s="1"/>
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C78" s="10"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="12"/>
+      <c r="D78" s="7"/>
+      <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="12"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="10"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="10"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="10"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F86" s="13" t="s">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>85</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2875,31 +2846,32 @@
       <c r="P98" s="6"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O99" s="15" t="s">
+      <c r="O99" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="P99" s="15">
+      <c r="P99" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O100" s="15" t="s">
+      <c r="O100" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="P100" s="15">
+      <c r="P100" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O101" s="15" t="s">
+      <c r="O101" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="P101" s="16" t="s">
+      <c r="P101" s="11" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J78:K78"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
@@ -2912,7 +2884,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="J78:K78"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Neural networks/teste de rede.xlsx
+++ b/Neural networks/teste de rede.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\Desktop\Projeto mestrado\Neural networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F095DCB-D4DA-4C67-8337-B1C92E46BBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30732AA-7063-4B79-9255-70079C671212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,10 +386,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -847,8 +847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6395199" y="9470183"/>
-          <a:ext cx="2744319" cy="1369267"/>
+          <a:off x="6410327" y="9470183"/>
+          <a:ext cx="2762248" cy="1369267"/>
           <a:chOff x="5800727" y="6803183"/>
           <a:chExt cx="2762248" cy="1369267"/>
         </a:xfrm>
@@ -1961,6 +1961,118 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>392207</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>845</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A997485E-5F78-30E2-9AAE-B7151263F5B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7373472" y="21750617"/>
+          <a:ext cx="6264932" cy="1490383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>291354</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>593914</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD1580C-23F7-4E63-B01F-5C74E28B9539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10298207" y="20024912"/>
+          <a:ext cx="3328148" cy="1482538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Repetição do teste anterior,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> porém com 30 épocas a fim de garantir que o resultado prévio não foi proveniente de um mínimo local</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2265,8 +2377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K115" sqref="K115"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V102" sqref="V102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,59 +2401,59 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
         <v>16</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
         <v>30</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
@@ -2795,8 +2907,8 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
@@ -2871,17 +2983,17 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
   </mergeCells>

--- a/Neural networks/teste de rede.xlsx
+++ b/Neural networks/teste de rede.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\Desktop\Projeto mestrado\Neural networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30732AA-7063-4B79-9255-70079C671212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB251FA-5816-4CD9-BA7B-B2B3F4D6E6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,13 +386,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -847,8 +847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6410327" y="9470183"/>
-          <a:ext cx="2762248" cy="1369267"/>
+          <a:off x="6395199" y="9470183"/>
+          <a:ext cx="2744319" cy="1369267"/>
           <a:chOff x="5800727" y="6803183"/>
           <a:chExt cx="2762248" cy="1369267"/>
         </a:xfrm>
@@ -1928,9 +1928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>528626</xdr:colOff>
+      <xdr:colOff>608469</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1954,7 +1954,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="596348" y="20797630"/>
-          <a:ext cx="6334735" cy="2459935"/>
+          <a:ext cx="6403396" cy="2490995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2068,6 +2068,358 @@
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
             <a:t> porém com 30 épocas a fim de garantir que o resultado prévio não foi proveniente de um mínimo local</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>12887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>291354</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F45617-770A-4280-B752-0C897B43A9ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="616325" y="23634887"/>
+          <a:ext cx="3025588" cy="730063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Encontro do</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> limiar ideal para a ativação da sigmóide:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17C7E70-C8B1-443D-A8E7-785B94E7460F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057899" y="190499"/>
+          <a:ext cx="7305675" cy="3438525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Linha do tempo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1- Comparativo entre os diferentes parâmetros</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> de configuração da rede neural utilizando a ShallowNet (TestSplit, épocas e batch size). As diferentes configurações não resultaram em variações expressivas</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2 - Comparativo entre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> diferentes arquiteturas de rede neural, utilizando ou não oconceito de transfer learning (ShallowNet, AlexNet e Mobile net). Ambas a Alexnet e ShallowNet apresentaram valores semelhantes de acurácia. A mobile net obteve um resultado expressivamente inferior</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3 - A arquitetura AlexNet foi aplicada em uma amostra do dataset a fim de verificar se a diminuição dos dados para treino iria influenciar  a acurácia (comprovaria a falta de informações ou a baixa quantidade dos dados)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4 - Comparação entre os acertos da ShallowNet e AlexNet com o ground truth da base de dados, a fim de verificar como as redes estavam aprendendo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5 - Busca do limiar ideal para a ativação da sigmóide levando em consideração os pesos da última camada da rede</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56028</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>15637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagem 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53F4580-1AE6-509E-C029-326D7F435A0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="661146" y="24574501"/>
+          <a:ext cx="3003178" cy="4016136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>522195</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>8406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83BB53E-7FB1-49E2-8136-C57D95208CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3872754" y="23630406"/>
+          <a:ext cx="2962834" cy="1504388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>O valor ideal encontrado</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> foi 0.73, o qual conseguiu classificar corretamente 3728 imagens. Tal valor corresponde a aproximadamente 73% de acerto no dataset com 5100 ovos.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>Como conclusão temos:</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
@@ -2377,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V102" sqref="V102"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,70 +2742,70 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
         <v>16</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13">
         <v>30</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
@@ -2907,8 +3259,8 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
@@ -2983,12 +3335,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="J78:K78"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
@@ -2996,6 +3342,12 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Neural networks/teste de rede.xlsx
+++ b/Neural networks/teste de rede.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\Desktop\Projeto mestrado\Neural networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB251FA-5816-4CD9-BA7B-B2B3F4D6E6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DC0632-E6B4-41D6-A2ED-52F62AB69808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
   <si>
     <t>Épocas</t>
   </si>
@@ -295,6 +295,27 @@
   </si>
   <si>
     <t>split</t>
+  </si>
+  <si>
+    <t>ALGORITMOS DE AGRUPAMENTO</t>
+  </si>
+  <si>
+    <t>MULTILAYER PERCEPTRON</t>
+  </si>
+  <si>
+    <t>K-NEAREST NEIGHBORS</t>
+  </si>
+  <si>
+    <t>RANDOM FOREST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALGORITMOS DE CLASSIFICAÇÃO - CROSS VALIDATION X 10 </t>
+  </si>
+  <si>
+    <t>K-MEANS</t>
+  </si>
+  <si>
+    <t>EXPECTATION MAXIMIZATION</t>
   </si>
 </sst>
 </file>
@@ -361,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,13 +407,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1927,8 +1955,8 @@
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>608469</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3351</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -2310,15 +2338,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>526674</xdr:colOff>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>15637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2342,7 +2370,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="661146" y="24574501"/>
+          <a:off x="3877233" y="23622001"/>
           <a:ext cx="3003178" cy="4016136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2354,16 +2382,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6724</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>8406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>522195</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>8406</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2378,8 +2406,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3872754" y="23630406"/>
-          <a:ext cx="2962834" cy="1504388"/>
+          <a:off x="611842" y="24582906"/>
+          <a:ext cx="3030070" cy="1493182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2420,6 +2448,837 @@
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
             <a:t>Como conclusão temos:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259977</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>15130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>264459</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4E3C3F-8367-4152-A945-7FEE6B819AD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7241242" y="23637130"/>
+          <a:ext cx="3030070" cy="3974164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Realizar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>  uma tentativa de classificação utilizando os metadados da coleta como base de dados.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>A base  contém valores numéricos referentes às medidas dos ovos obtidos através do programa de extração de características.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>Segue ao lado as configurações utilizadas</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>832098</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>143638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagem 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF72A997-8AB1-7A49-FB90-25DBAC98EB8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="30108525"/>
+          <a:ext cx="4480172" cy="5468113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13865</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>188901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Conector de Seta Reta 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E57A9B-4107-43F1-93D3-738AD404233C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8843540" y="27811401"/>
+          <a:ext cx="5185" cy="1258899"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600526</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Imagem 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D25FA1F-98B7-4EBD-6D03-7ED13FA74A9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="30099000"/>
+          <a:ext cx="4943926" cy="3686176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203659</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Imagem 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A841F62D-DA38-EF15-CF70-19ED793B1336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="614644" y="36204524"/>
+          <a:ext cx="5360044" cy="3408269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>199466</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>30256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163915</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Imagem 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A16E10-6345-0F45-45E8-94895550FE39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5970495" y="36225256"/>
+          <a:ext cx="4805391" cy="3398744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>70681</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>42103</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagem 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF25E70-6D7D-BEA8-067E-E2F2C507F005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="616323" y="40408412"/>
+          <a:ext cx="4620270" cy="4591691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89645</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>597464</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagem 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44118ACA-D3CA-1B9A-69EE-61B07A28BC3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5255557" y="40419616"/>
+          <a:ext cx="5348760" cy="3832413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13448</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>3923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB83AFA-AD15-4CF4-845B-845E8D01155D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11230536" y="37151423"/>
+          <a:ext cx="4211169" cy="1318371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>Um algoritmo baseado em instâncias que classifica um exemplo com base nos exemplos mais próximos no espaço dos dados. É simples, porém eficaz, especialmente para conjuntos de dados pequenos a médios.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8966</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>10647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>589429</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>186018</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CF84AF-8EA6-43B7-A461-4CEE568A0F9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11226054" y="41349147"/>
+          <a:ext cx="4211169" cy="1318371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>Um conjunto de árvores de decisão que são treinadas em subconjuntos diferentes dos dados, com a previsão final sendo a média das previsões individuais das árvores. É robusto contra overfitting e pode lidar bem com conjuntos de dados grandes e complexos.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>755280</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>174253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B9631D-25CD-4ABB-B169-0BE431E19DB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5013515" y="47989753"/>
+          <a:ext cx="4096868" cy="1809188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>Um algoritmo de agrupamento particional que divide os dados em k clusters, onde cada ponto de dados pertence ao cluster com o centroide mais próximo. É simples e eficiente para dados numéricos.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>751406</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>30977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Imagem 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE621562-8955-FF3E-EA9F-A6B41DDDD031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="627529" y="46112206"/>
+          <a:ext cx="4382112" cy="5163271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>310412</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>146467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Imagem 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39560D6-0416-3D08-27DC-51B0E60D5B46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5020235" y="46123412"/>
+          <a:ext cx="4086795" cy="1648055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>767100</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>114821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Imagem 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B3AE18-ABD0-7F98-5766-A3448BD40255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="52006500"/>
+          <a:ext cx="4420217" cy="3734321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>773206</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>359724</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>89362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Imagem 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A664076-6BAD-5CB2-978A-EE4DB8FD2591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5031441" y="52028912"/>
+          <a:ext cx="4124901" cy="1971950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>773209</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>12888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3294B9-B56E-485B-B0EC-A9957E5BF023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5031444" y="54114888"/>
+          <a:ext cx="4112556" cy="1611965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>Um algoritmo que assume que os dados são uma mistura de várias distribuições Gaussianas e usa um processo iterativo para estimar os parâmetros dessas distribuições e as probabilidades de pertencimento dos dados aos clusters.</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
@@ -2727,10 +3586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C7:P101"/>
+  <dimension ref="B7:W272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B295" sqref="B295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,70 +3601,70 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
         <v>16</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
         <v>30</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
@@ -3259,8 +4118,8 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
@@ -3333,8 +4192,88 @@
         <v>5</v>
       </c>
     </row>
+    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B155" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
+      <c r="J155" s="16"/>
+      <c r="K155" s="16"/>
+      <c r="L155" s="16"/>
+      <c r="M155" s="16"/>
+      <c r="N155" s="16"/>
+      <c r="O155" s="16"/>
+      <c r="P155" s="16"/>
+      <c r="Q155" s="16"/>
+      <c r="R155" s="16"/>
+      <c r="S155" s="17"/>
+      <c r="T155" s="17"/>
+      <c r="U155" s="17"/>
+      <c r="V155" s="15"/>
+      <c r="W155" s="15"/>
+    </row>
+    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="239" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B239" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C239" s="16"/>
+      <c r="D239" s="16"/>
+      <c r="E239" s="16"/>
+      <c r="F239" s="16"/>
+      <c r="G239" s="16"/>
+      <c r="H239" s="16"/>
+      <c r="I239" s="16"/>
+      <c r="J239" s="16"/>
+      <c r="K239" s="16"/>
+      <c r="L239" s="16"/>
+      <c r="M239" s="16"/>
+      <c r="N239" s="16"/>
+      <c r="O239" s="16"/>
+      <c r="P239" s="16"/>
+      <c r="Q239" s="16"/>
+      <c r="R239" s="16"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="B239:R239"/>
+    <mergeCell ref="B155:R155"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="J78:K78"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
@@ -3342,12 +4281,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Neural networks/teste de rede.xlsx
+++ b/Neural networks/teste de rede.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\Desktop\Projeto mestrado\Neural networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DC0632-E6B4-41D6-A2ED-52F62AB69808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6E363C-4E3A-41CF-8672-5FC6C9F1EB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
   <si>
     <t>Épocas</t>
   </si>
@@ -316,13 +316,40 @@
   </si>
   <si>
     <t>EXPECTATION MAXIMIZATION</t>
+  </si>
+  <si>
+    <t>BATCH 06.04</t>
+  </si>
+  <si>
+    <t>A, B, Area</t>
+  </si>
+  <si>
+    <t>Area_F, Vol_F, A</t>
+  </si>
+  <si>
+    <t>Area_F, Vol_F, B</t>
+  </si>
+  <si>
+    <t>vol, area, A</t>
+  </si>
+  <si>
+    <t>vol, area, B</t>
+  </si>
+  <si>
+    <t>A, B, Area_F</t>
+  </si>
+  <si>
+    <t>A, B, Vol_F</t>
+  </si>
+  <si>
+    <t>A, B, Volume</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +360,14 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -382,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,22 +442,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,8 +907,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6395199" y="9470183"/>
-          <a:ext cx="2744319" cy="1369267"/>
+          <a:off x="6410327" y="9470183"/>
+          <a:ext cx="2762248" cy="1369267"/>
           <a:chOff x="5800727" y="6803183"/>
           <a:chExt cx="2762248" cy="1369267"/>
         </a:xfrm>
@@ -3284,6 +3316,426 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22410</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFAD5B54-4ED2-4B5B-A766-E62DC239BF75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632010" y="56600911"/>
+          <a:ext cx="8778690" cy="720539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> fim de verificar a tendência de agrupamento, alguns gráficos tridimensionais foram gerados, analisando as os atribitudos mais significativos do dataset. Este experimento foi realizado no batch 06.04 e no batch piloto, uma vez que o experimento piloto possui uma quantidade maior de dados (como peso e densidade) </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>908400</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagem 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{475D4641-D553-95F0-6612-D2CEB22B832C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="58188225"/>
+          <a:ext cx="2727674" cy="2638425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219904</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagem 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3BB33B-7112-F982-7C11-ED2031C23989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="58150125"/>
+          <a:ext cx="2944054" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>161533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Imagem 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3763BB-945C-29BA-DF9B-253AA2507416}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="58121550"/>
+          <a:ext cx="2905125" cy="2809483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>143747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Imagem 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E337B3-9682-69C5-1C85-F066EF0E8BE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="58131075"/>
+          <a:ext cx="2952749" cy="2782172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>118956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Imagem 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2240794-BFD5-BF26-4374-E94A2711DF73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628651" y="61560076"/>
+          <a:ext cx="2724150" cy="2566880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>140407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Imagem 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D16435-500A-7782-B338-0972BEA1D240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295776" y="61550551"/>
+          <a:ext cx="2971800" cy="2788356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>29690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Imagem 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7026AA3-D91A-E36A-7486-2D883E29C177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="61560075"/>
+          <a:ext cx="2943225" cy="2858615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>170943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Imagem 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68740A2F-B31D-1CCB-42AD-07CF33E943EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11896725" y="61550551"/>
+          <a:ext cx="2914650" cy="2818892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3586,10 +4038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B7:W272"/>
+  <dimension ref="B7:X342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B295" sqref="B295"/>
+    <sheetView tabSelected="1" topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W323" sqref="W323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3601,70 +4053,70 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14">
         <v>16</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14">
         <v>30</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
@@ -4118,8 +4570,8 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
@@ -4192,33 +4644,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B155" s="16" t="s">
+    <row r="155" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B155" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
-      <c r="H155" s="16"/>
-      <c r="I155" s="16"/>
-      <c r="J155" s="16"/>
-      <c r="K155" s="16"/>
-      <c r="L155" s="16"/>
-      <c r="M155" s="16"/>
-      <c r="N155" s="16"/>
-      <c r="O155" s="16"/>
-      <c r="P155" s="16"/>
-      <c r="Q155" s="16"/>
-      <c r="R155" s="16"/>
-      <c r="S155" s="17"/>
-      <c r="T155" s="17"/>
-      <c r="U155" s="17"/>
-      <c r="V155" s="15"/>
-      <c r="W155" s="15"/>
-    </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="12"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+    </row>
+    <row r="157" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>91</v>
       </c>
@@ -4234,25 +4684,25 @@
       </c>
     </row>
     <row r="239" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B239" s="16" t="s">
+      <c r="B239" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C239" s="16"/>
-      <c r="D239" s="16"/>
-      <c r="E239" s="16"/>
-      <c r="F239" s="16"/>
-      <c r="G239" s="16"/>
-      <c r="H239" s="16"/>
-      <c r="I239" s="16"/>
-      <c r="J239" s="16"/>
-      <c r="K239" s="16"/>
-      <c r="L239" s="16"/>
-      <c r="M239" s="16"/>
-      <c r="N239" s="16"/>
-      <c r="O239" s="16"/>
-      <c r="P239" s="16"/>
-      <c r="Q239" s="16"/>
-      <c r="R239" s="16"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12"/>
+      <c r="G239" s="12"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="12"/>
+      <c r="J239" s="12"/>
+      <c r="K239" s="12"/>
+      <c r="L239" s="12"/>
+      <c r="M239" s="12"/>
+      <c r="N239" s="12"/>
+      <c r="O239" s="12"/>
+      <c r="P239" s="12"/>
+      <c r="Q239" s="12"/>
+      <c r="R239" s="12"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
@@ -4263,6 +4713,45 @@
       <c r="B272" t="s">
         <v>96</v>
       </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="305" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>105</v>
+      </c>
+      <c r="F305" t="s">
+        <v>98</v>
+      </c>
+      <c r="L305" t="s">
+        <v>104</v>
+      </c>
+      <c r="R305" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="322" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>99</v>
+      </c>
+      <c r="F322" t="s">
+        <v>100</v>
+      </c>
+      <c r="L322" t="s">
+        <v>101</v>
+      </c>
+      <c r="R322" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="323" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W323" s="16"/>
+    </row>
+    <row r="342" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X342" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Neural networks/teste de rede.xlsx
+++ b/Neural networks/teste de rede.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\Desktop\Projeto mestrado\Neural networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6E363C-4E3A-41CF-8672-5FC6C9F1EB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7A73CF-8F97-446C-AE8A-06F013ADCADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
   <si>
     <t>Épocas</t>
   </si>
@@ -343,6 +343,15 @@
   </si>
   <si>
     <t>A, B, Volume</t>
+  </si>
+  <si>
+    <t>Dataset completo</t>
+  </si>
+  <si>
+    <t>Dataset balanceado</t>
+  </si>
+  <si>
+    <t>Amostra 1:</t>
   </si>
 </sst>
 </file>
@@ -442,6 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,7 +464,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4038,10 +4047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B7:X342"/>
+  <dimension ref="B7:X344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W323" sqref="W323"/>
+    <sheetView tabSelected="1" topLeftCell="A324" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D344" sqref="D344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4053,70 +4062,70 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15">
         <v>16</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15">
         <v>30</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
@@ -4570,8 +4579,8 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
@@ -4645,25 +4654,25 @@
       </c>
     </row>
     <row r="155" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="12"/>
-      <c r="L155" s="12"/>
-      <c r="M155" s="12"/>
-      <c r="N155" s="12"/>
-      <c r="O155" s="12"/>
-      <c r="P155" s="12"/>
-      <c r="Q155" s="12"/>
-      <c r="R155" s="12"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="13"/>
+      <c r="L155" s="13"/>
+      <c r="M155" s="13"/>
+      <c r="N155" s="13"/>
+      <c r="O155" s="13"/>
+      <c r="P155" s="13"/>
+      <c r="Q155" s="13"/>
+      <c r="R155" s="13"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
@@ -4684,25 +4693,25 @@
       </c>
     </row>
     <row r="239" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B239" s="12" t="s">
+      <c r="B239" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C239" s="12"/>
-      <c r="D239" s="12"/>
-      <c r="E239" s="12"/>
-      <c r="F239" s="12"/>
-      <c r="G239" s="12"/>
-      <c r="H239" s="12"/>
-      <c r="I239" s="12"/>
-      <c r="J239" s="12"/>
-      <c r="K239" s="12"/>
-      <c r="L239" s="12"/>
-      <c r="M239" s="12"/>
-      <c r="N239" s="12"/>
-      <c r="O239" s="12"/>
-      <c r="P239" s="12"/>
-      <c r="Q239" s="12"/>
-      <c r="R239" s="12"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="13"/>
+      <c r="G239" s="13"/>
+      <c r="H239" s="13"/>
+      <c r="I239" s="13"/>
+      <c r="J239" s="13"/>
+      <c r="K239" s="13"/>
+      <c r="L239" s="13"/>
+      <c r="M239" s="13"/>
+      <c r="N239" s="13"/>
+      <c r="O239" s="13"/>
+      <c r="P239" s="13"/>
+      <c r="Q239" s="13"/>
+      <c r="R239" s="13"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
@@ -4714,9 +4723,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>97</v>
+      </c>
+      <c r="C303" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="305" spans="2:18" x14ac:dyDescent="0.25">
@@ -4748,10 +4760,24 @@
       </c>
     </row>
     <row r="323" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W323" s="16"/>
-    </row>
-    <row r="342" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X342" s="16"/>
+      <c r="W323" s="12"/>
+    </row>
+    <row r="340" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>97</v>
+      </c>
+      <c r="C340" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="342" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B342" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="X342" s="12"/>
+    </row>
+    <row r="344" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D344" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Neural networks/teste de rede.xlsx
+++ b/Neural networks/teste de rede.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\Desktop\Projeto mestrado\Neural networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7A73CF-8F97-446C-AE8A-06F013ADCADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E460507-057D-4A9E-9141-C0DE131C6623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
   <si>
     <t>Épocas</t>
   </si>
@@ -321,21 +321,6 @@
     <t>BATCH 06.04</t>
   </si>
   <si>
-    <t>A, B, Area</t>
-  </si>
-  <si>
-    <t>Area_F, Vol_F, A</t>
-  </si>
-  <si>
-    <t>Area_F, Vol_F, B</t>
-  </si>
-  <si>
-    <t>vol, area, A</t>
-  </si>
-  <si>
-    <t>vol, area, B</t>
-  </si>
-  <si>
     <t>A, B, Area_F</t>
   </si>
   <si>
@@ -345,13 +330,31 @@
     <t>A, B, Volume</t>
   </si>
   <si>
-    <t>Dataset completo</t>
-  </si>
-  <si>
     <t>Dataset balanceado</t>
   </si>
   <si>
-    <t>Amostra 1:</t>
+    <t>rot: 240, 90</t>
+  </si>
+  <si>
+    <t>A, B, Area - RESULTADOS SIMILARES</t>
+  </si>
+  <si>
+    <t>Volume, Area, A</t>
+  </si>
+  <si>
+    <t>A, B, Area_Formula</t>
+  </si>
+  <si>
+    <t>BATCH PILOTO</t>
+  </si>
+  <si>
+    <t>volume, Area, Peso</t>
+  </si>
+  <si>
+    <t>volume, Densidade arquimedes, Peso</t>
+  </si>
+  <si>
+    <t>A, B, Peso</t>
   </si>
 </sst>
 </file>
@@ -916,8 +919,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6410327" y="9470183"/>
-          <a:ext cx="2762248" cy="1369267"/>
+          <a:off x="6441623" y="9470183"/>
+          <a:ext cx="2773134" cy="1369267"/>
           <a:chOff x="5800727" y="6803183"/>
           <a:chExt cx="2762248" cy="1369267"/>
         </a:xfrm>
@@ -3397,23 +3400,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>305</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>908400</xdr:colOff>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>319</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>161533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Imagem 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{475D4641-D553-95F0-6612-D2CEB22B832C}"/>
+        <xdr:cNvPr id="41" name="Imagem 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3763BB-945C-29BA-DF9B-253AA2507416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3429,8 +3432,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619126" y="58188225"/>
-          <a:ext cx="2727674" cy="2638425"/>
+          <a:off x="8239125" y="58121550"/>
+          <a:ext cx="2905125" cy="2809483"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3441,23 +3444,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>305</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219904</xdr:colOff>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
       <xdr:row>319</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>143747</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Imagem 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3BB33B-7112-F982-7C11-ED2031C23989}"/>
+        <xdr:cNvPr id="55" name="Imagem 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E337B3-9682-69C5-1C85-F066EF0E8BE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3473,8 +3476,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4276725" y="58150125"/>
-          <a:ext cx="2944054" cy="2762250"/>
+          <a:off x="11887200" y="58131075"/>
+          <a:ext cx="2952749" cy="2782172"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3485,23 +3488,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>305</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>319</xdr:row>
-      <xdr:rowOff>161533</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>612320</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>889019</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Imagem 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3763BB-945C-29BA-DF9B-253AA2507416}"/>
+        <xdr:cNvPr id="61" name="Imagem 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11C387F-73A1-D75F-F239-2CD74BCA279B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3517,8 +3520,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="58121550"/>
-          <a:ext cx="2905125" cy="2809483"/>
+          <a:off x="612320" y="58293000"/>
+          <a:ext cx="4562949" cy="3497035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3529,23 +3532,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>305</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>319</xdr:row>
-      <xdr:rowOff>143747</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>156581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Imagem 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E337B3-9682-69C5-1C85-F066EF0E8BE9}"/>
+        <xdr:cNvPr id="62" name="Imagem 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D57904-F345-F5F3-3E69-856A4605E6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3561,8 +3564,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11887200" y="58131075"/>
-          <a:ext cx="2952749" cy="2782172"/>
+          <a:off x="5810250" y="58293001"/>
+          <a:ext cx="3769179" cy="3585580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3574,22 +3577,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>323</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>914401</xdr:colOff>
-      <xdr:row>336</xdr:row>
-      <xdr:rowOff>118956</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>884744</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Imagem 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2240794-BFD5-BF26-4374-E94A2711DF73}"/>
+        <xdr:cNvPr id="63" name="Imagem 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410B05A4-71D7-8BF9-61BF-747E71E7696B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3605,8 +3608,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="628651" y="61560076"/>
-          <a:ext cx="2724150" cy="2566880"/>
+          <a:off x="612322" y="62865001"/>
+          <a:ext cx="4558672" cy="3551463"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3617,23 +3620,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>323</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>337</xdr:row>
-      <xdr:rowOff>140407</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>158314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Imagem 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D16435-500A-7782-B338-0972BEA1D240}"/>
+        <xdr:cNvPr id="64" name="Imagem 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF63FF08-ACDA-751D-2058-F6BF78A2C9D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3649,8 +3652,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295776" y="61550551"/>
-          <a:ext cx="2971800" cy="2788356"/>
+          <a:off x="5810250" y="62674500"/>
+          <a:ext cx="4544786" cy="3777814"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3661,23 +3664,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>323</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>338</xdr:row>
-      <xdr:rowOff>29690</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>905037</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Imagem 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7026AA3-D91A-E36A-7486-2D883E29C177}"/>
+        <xdr:cNvPr id="65" name="Imagem 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097AA2D3-408E-8DD6-0E3E-2B90E387746C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3693,8 +3696,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="61560075"/>
-          <a:ext cx="2943225" cy="2858615"/>
+          <a:off x="612321" y="67246501"/>
+          <a:ext cx="4578966" cy="3456214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3705,23 +3708,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>323</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>337</xdr:row>
-      <xdr:rowOff>170943</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>176075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Imagem 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68740A2F-B31D-1CCB-42AD-07CF33E943EF}"/>
+        <xdr:cNvPr id="66" name="Imagem 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33110BE6-12E3-7C7D-1070-9C7264D34ACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3737,8 +3740,272 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11896725" y="61550551"/>
-          <a:ext cx="2914650" cy="2818892"/>
+          <a:off x="5810250" y="67056001"/>
+          <a:ext cx="4014107" cy="3795574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>867318</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Imagem 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F067340-CB9A-DF4F-CFBD-45A6FD7157BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612321" y="71818500"/>
+          <a:ext cx="4541247" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>161063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Imagem 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5314E44E-4560-BFAD-6661-3FC614B8D959}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="71628000"/>
+          <a:ext cx="3823607" cy="3590063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>30957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Imagem 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD635D9E-6D8D-D3F6-593A-B926A0AC7724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612322" y="75819001"/>
+          <a:ext cx="4585608" cy="3459956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>120379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Imagem 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752E510F-289B-2221-2982-25CCB41FBD6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810251" y="75628500"/>
+          <a:ext cx="4068536" cy="3739879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>334914</xdr:colOff>
+      <xdr:row>439</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Imagem 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FD32ED-1183-8766-7EF9-0E4D8659C104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810251" y="80010001"/>
+          <a:ext cx="4008842" cy="3741964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>891279</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Imagem 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C88BAF-C11C-017C-3012-E1527C810FED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612322" y="80010000"/>
+          <a:ext cx="4565207" cy="3483429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4047,10 +4314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B7:X344"/>
+  <dimension ref="B7:AR450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D344" sqref="D344"/>
+    <sheetView tabSelected="1" topLeftCell="A309" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C304" sqref="C304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4723,61 +4990,112 @@
         <v>96</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B303" t="s">
+    <row r="303" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B303" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D303" s="3"/>
+      <c r="E303" s="3"/>
+      <c r="F303" s="3"/>
+      <c r="G303" s="3"/>
+      <c r="H303" s="3"/>
+      <c r="I303" s="3"/>
+      <c r="J303" s="3"/>
+      <c r="K303" s="3"/>
+      <c r="L303" s="3"/>
+      <c r="M303" s="3"/>
+    </row>
+    <row r="305" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>100</v>
+      </c>
+      <c r="D305" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG305" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM305" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="323" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AR323" s="12"/>
+    </row>
+    <row r="327" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="329" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>104</v>
+      </c>
+      <c r="D329" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="342" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X342" s="12"/>
+    </row>
+    <row r="352" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>105</v>
+      </c>
+      <c r="D352" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="374" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B374" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="305" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B305" t="s">
-        <v>105</v>
-      </c>
-      <c r="F305" t="s">
-        <v>98</v>
-      </c>
-      <c r="L305" t="s">
-        <v>104</v>
-      </c>
-      <c r="R305" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="322" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B322" t="s">
-        <v>99</v>
-      </c>
-      <c r="F322" t="s">
-        <v>100</v>
-      </c>
-      <c r="L322" t="s">
+      <c r="C374" s="3"/>
+      <c r="D374" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="R322" t="s">
+      <c r="E374" s="3"/>
+      <c r="F374" s="3"/>
+      <c r="G374" s="3"/>
+      <c r="H374" s="3"/>
+      <c r="I374" s="3"/>
+      <c r="J374" s="3"/>
+      <c r="K374" s="3"/>
+      <c r="L374" s="3"/>
+      <c r="M374" s="3"/>
+    </row>
+    <row r="376" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>107</v>
+      </c>
+      <c r="D376" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="323" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W323" s="12"/>
-    </row>
-    <row r="340" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B340" t="s">
-        <v>97</v>
-      </c>
-      <c r="C340" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="342" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B342" s="12" t="s">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
         <v>108</v>
       </c>
-      <c r="X342" s="12"/>
-    </row>
-    <row r="344" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D344" s="12"/>
+      <c r="F397" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
+        <v>109</v>
+      </c>
+      <c r="F419" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B448" s="12"/>
+    </row>
+    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D450" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Neural networks/teste de rede.xlsx
+++ b/Neural networks/teste de rede.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\Desktop\Projeto mestrado\Neural networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E460507-057D-4A9E-9141-C0DE131C6623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3548F43C-B556-40DC-8836-39B60759DA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
   <si>
     <t>Épocas</t>
   </si>
@@ -319,12 +319,6 @@
   </si>
   <si>
     <t>BATCH 06.04</t>
-  </si>
-  <si>
-    <t>A, B, Area_F</t>
-  </si>
-  <si>
-    <t>A, B, Vol_F</t>
   </si>
   <si>
     <t>A, B, Volume</t>
@@ -919,8 +913,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6441623" y="9470183"/>
-          <a:ext cx="2773134" cy="1369267"/>
+          <a:off x="6421509" y="9470183"/>
+          <a:ext cx="2775500" cy="1369267"/>
           <a:chOff x="5800727" y="6803183"/>
           <a:chExt cx="2762248" cy="1369267"/>
         </a:xfrm>
@@ -3400,23 +3394,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>305</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>319</xdr:row>
-      <xdr:rowOff>161533</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>612320</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>889019</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Imagem 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3763BB-945C-29BA-DF9B-253AA2507416}"/>
+        <xdr:cNvPr id="61" name="Imagem 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11C387F-73A1-D75F-F239-2CD74BCA279B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3432,8 +3426,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="58121550"/>
-          <a:ext cx="2905125" cy="2809483"/>
+          <a:off x="612320" y="58293000"/>
+          <a:ext cx="4562949" cy="3497035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3444,23 +3438,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>305</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>319</xdr:row>
-      <xdr:rowOff>143747</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>156581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Imagem 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E337B3-9682-69C5-1C85-F066EF0E8BE9}"/>
+        <xdr:cNvPr id="62" name="Imagem 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D57904-F345-F5F3-3E69-856A4605E6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3476,8 +3470,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11887200" y="58131075"/>
-          <a:ext cx="2952749" cy="2782172"/>
+          <a:off x="5810250" y="58293001"/>
+          <a:ext cx="3769179" cy="3585580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3488,23 +3482,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>612320</xdr:colOff>
-      <xdr:row>306</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>889019</xdr:colOff>
-      <xdr:row>324</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:colOff>884744</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Imagem 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11C387F-73A1-D75F-F239-2CD74BCA279B}"/>
+        <xdr:cNvPr id="63" name="Imagem 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410B05A4-71D7-8BF9-61BF-747E71E7696B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3520,8 +3514,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="612320" y="58293000"/>
-          <a:ext cx="4562949" cy="3497035"/>
+          <a:off x="612322" y="62865001"/>
+          <a:ext cx="4558672" cy="3551463"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3534,21 +3528,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>306</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>324</xdr:row>
-      <xdr:rowOff>156581</xdr:rowOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>158314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Imagem 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D57904-F345-F5F3-3E69-856A4605E6BD}"/>
+        <xdr:cNvPr id="64" name="Imagem 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF63FF08-ACDA-751D-2058-F6BF78A2C9D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3564,8 +3558,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5810250" y="58293001"/>
-          <a:ext cx="3769179" cy="3585580"/>
+          <a:off x="5810250" y="62674500"/>
+          <a:ext cx="4544786" cy="3777814"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3577,22 +3571,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>884744</xdr:colOff>
-      <xdr:row>348</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:colOff>905037</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Imagem 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410B05A4-71D7-8BF9-61BF-747E71E7696B}"/>
+        <xdr:cNvPr id="65" name="Imagem 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097AA2D3-408E-8DD6-0E3E-2B90E387746C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3608,8 +3602,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="612322" y="62865001"/>
-          <a:ext cx="4558672" cy="3551463"/>
+          <a:off x="612321" y="67246501"/>
+          <a:ext cx="4578966" cy="3456214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3622,21 +3616,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>329</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>348</xdr:row>
-      <xdr:rowOff>158314</xdr:rowOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>176075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Imagem 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF63FF08-ACDA-751D-2058-F6BF78A2C9D7}"/>
+        <xdr:cNvPr id="66" name="Imagem 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33110BE6-12E3-7C7D-1070-9C7264D34ACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3652,8 +3646,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5810250" y="62674500"/>
-          <a:ext cx="4544786" cy="3777814"/>
+          <a:off x="5810250" y="67056001"/>
+          <a:ext cx="4014107" cy="3795574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3666,21 +3660,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>353</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>905037</xdr:colOff>
-      <xdr:row>371</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:colOff>867318</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Imagem 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097AA2D3-408E-8DD6-0E3E-2B90E387746C}"/>
+        <xdr:cNvPr id="67" name="Imagem 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F067340-CB9A-DF4F-CFBD-45A6FD7157BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3696,8 +3690,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="612321" y="67246501"/>
-          <a:ext cx="4578966" cy="3456214"/>
+          <a:off x="612321" y="71818500"/>
+          <a:ext cx="4541247" cy="3429000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3710,21 +3704,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>352</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>340178</xdr:colOff>
-      <xdr:row>371</xdr:row>
-      <xdr:rowOff>176075</xdr:rowOff>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>161063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Imagem 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33110BE6-12E3-7C7D-1070-9C7264D34ACF}"/>
+        <xdr:cNvPr id="68" name="Imagem 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5314E44E-4560-BFAD-6661-3FC614B8D959}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3740,8 +3734,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5810250" y="67056001"/>
-          <a:ext cx="4014107" cy="3795574"/>
+          <a:off x="5810250" y="71628000"/>
+          <a:ext cx="3823607" cy="3590063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3753,22 +3747,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>377</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>867318</xdr:colOff>
-      <xdr:row>395</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>30957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Imagem 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F067340-CB9A-DF4F-CFBD-45A6FD7157BA}"/>
+        <xdr:cNvPr id="69" name="Imagem 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD635D9E-6D8D-D3F6-593A-B926A0AC7724}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3784,8 +3778,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="612321" y="71818500"/>
-          <a:ext cx="4541247" cy="3429000"/>
+          <a:off x="612322" y="75819001"/>
+          <a:ext cx="4585608" cy="3459956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3797,22 +3791,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>376</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>397</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
-      <xdr:row>394</xdr:row>
-      <xdr:rowOff>161063</xdr:rowOff>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>120379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Imagem 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5314E44E-4560-BFAD-6661-3FC614B8D959}"/>
+        <xdr:cNvPr id="70" name="Imagem 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752E510F-289B-2221-2982-25CCB41FBD6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3828,8 +3822,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5810250" y="71628000"/>
-          <a:ext cx="3823607" cy="3590063"/>
+          <a:off x="5810251" y="75628500"/>
+          <a:ext cx="4068536" cy="3739879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3840,23 +3834,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>398</xdr:row>
+      <xdr:row>420</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>416</xdr:row>
-      <xdr:rowOff>30957</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>334914</xdr:colOff>
+      <xdr:row>439</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Imagem 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD635D9E-6D8D-D3F6-593A-B926A0AC7724}"/>
+        <xdr:cNvPr id="71" name="Imagem 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FD32ED-1183-8766-7EF9-0E4D8659C104}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3872,8 +3866,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="612322" y="75819001"/>
-          <a:ext cx="4585608" cy="3459956"/>
+          <a:off x="5810251" y="80010001"/>
+          <a:ext cx="4008842" cy="3741964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3884,23 +3878,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>397</xdr:row>
+      <xdr:row>420</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>394608</xdr:colOff>
-      <xdr:row>416</xdr:row>
-      <xdr:rowOff>120379</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>891279</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Imagem 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752E510F-289B-2221-2982-25CCB41FBD6C}"/>
+        <xdr:cNvPr id="72" name="Imagem 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C88BAF-C11C-017C-3012-E1527C810FED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3910,94 +3904,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5810251" y="75628500"/>
-          <a:ext cx="4068536" cy="3739879"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>420</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>334914</xdr:colOff>
-      <xdr:row>439</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Imagem 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FD32ED-1183-8766-7EF9-0E4D8659C104}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5810251" y="80010001"/>
-          <a:ext cx="4008842" cy="3741964"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>420</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>891279</xdr:colOff>
-      <xdr:row>438</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Imagem 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C88BAF-C11C-017C-3012-E1527C810FED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4316,8 +4222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B7:AR450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C304" sqref="C304"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4995,7 +4901,7 @@
         <v>97</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -5008,18 +4914,12 @@
       <c r="L303" s="3"/>
       <c r="M303" s="3"/>
     </row>
-    <row r="305" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
+        <v>98</v>
+      </c>
+      <c r="D305" t="s">
         <v>100</v>
-      </c>
-      <c r="D305" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG305" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM305" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="323" spans="2:44" x14ac:dyDescent="0.25">
@@ -5027,15 +4927,15 @@
     </row>
     <row r="327" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="329" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D329" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="342" spans="2:24" x14ac:dyDescent="0.25">
@@ -5043,19 +4943,19 @@
     </row>
     <row r="352" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D352" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="374" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B374" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
@@ -5069,26 +4969,26 @@
     </row>
     <row r="376" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D376" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F397" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F419" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.25">
